--- a/data/RTG_Locations.xlsx
+++ b/data/RTG_Locations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54551\Desktop\health-equity-clinic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54551\Desktop\isochrone_testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29590A2-C046-4835-B31E-AF7AE1DF8EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB27717A-DE6A-4197-92A6-8E87AF360000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29175" yWindow="1005" windowWidth="14520" windowHeight="13890" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Address</t>
   </si>
@@ -132,6 +132,36 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Evangel</t>
+  </si>
+  <si>
+    <t>Old L Richardson</t>
+  </si>
+  <si>
+    <t>Mt Zion</t>
+  </si>
+  <si>
+    <t>Pyramids Village</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>N Church/ E Cone</t>
+  </si>
+  <si>
+    <t>Life Community Church</t>
+  </si>
+  <si>
+    <t>Near Elmsley SQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Across from Auto Repair </t>
   </si>
 </sst>
 </file>
@@ -139,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -224,11 +254,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,324 +573,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318463B-95AD-48F3-A21D-B28D427A475F}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="C2:D21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="E2" s="4">
         <v>36.030110000000001</v>
       </c>
-      <c r="D2" s="4">
+      <c r="F2" s="4">
         <v>-79.964209999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="E3" s="4">
         <v>36.033200000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="F3" s="4">
         <v>-79.958209999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="E4" s="4">
         <v>36.033200000000001</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="4">
         <v>-79.958200000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="E5" s="4">
         <v>36.073140000000002</v>
       </c>
-      <c r="D5" s="4">
+      <c r="F5" s="4">
         <v>-79.834620000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="E6" s="4">
         <v>36.113700000000001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="F6" s="4">
         <v>-79.780299999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="E7" s="5">
         <v>36.109733599999998</v>
       </c>
-      <c r="D7" s="5">
+      <c r="F7" s="5">
         <v>-79.754377300000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="E8" s="5">
         <v>36.096483499999998</v>
       </c>
-      <c r="D8" s="5">
+      <c r="F8" s="5">
         <v>-79.827107900000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4">
+      <c r="E9" s="4">
         <v>36.096483499999998</v>
       </c>
-      <c r="D9" s="4">
+      <c r="F9" s="4">
         <v>-79.827107900000001</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="E10" s="6">
         <v>36.096483499999998</v>
       </c>
-      <c r="D10" s="6">
+      <c r="F10" s="6">
         <v>-79.827107900000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4">
+      <c r="E11" s="4">
         <v>36.063453961651298</v>
       </c>
-      <c r="D11" s="4">
+      <c r="F11" s="4">
         <v>-79.746182130591905</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="E12" s="4">
         <v>36.096483499999998</v>
       </c>
-      <c r="D12" s="4">
+      <c r="F12" s="4">
         <v>-79.827107900000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4">
+      <c r="E13" s="4">
         <v>36.0534259914998</v>
       </c>
-      <c r="D13" s="4">
+      <c r="F13" s="4">
         <v>-79.731323375614295</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="E14" s="4">
         <v>36.096483499999998</v>
       </c>
-      <c r="D14" s="4">
+      <c r="F14" s="4">
         <v>-79.827107900000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4">
+      <c r="E15" s="4">
         <v>36.015284725514</v>
       </c>
-      <c r="D15" s="4">
+      <c r="F15" s="4">
         <v>-79.797173832401299</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4">
+      <c r="E16" s="4">
         <v>36.006445762246898</v>
       </c>
-      <c r="D16" s="4">
+      <c r="F16" s="4">
         <v>-79.793766009907202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4">
+      <c r="E17" s="4">
         <v>36.004964111264002</v>
       </c>
-      <c r="D17" s="4">
+      <c r="F17" s="4">
         <v>-79.791298021844597</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4">
+      <c r="E18" s="4">
         <v>36.002955120445797</v>
       </c>
-      <c r="D18" s="4">
+      <c r="F18" s="4">
         <v>-79.789908871612198</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="4">
-        <v>36.114108999999999</v>
-      </c>
-      <c r="D19" s="4">
-        <v>-79.746559000000005</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
+        <v>36.1141042</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-79.746020599999994</v>
+      </c>
+      <c r="G19" s="2">
         <v>37081015402</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4">
-        <v>36.06832</v>
-      </c>
-      <c r="D20" s="4">
-        <v>-79.770179999999996</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
+        <v>36.068318599999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-79.772461500000006</v>
+      </c>
+      <c r="G20" s="2">
         <v>37081011200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4">
-        <v>36.040120000000002</v>
-      </c>
-      <c r="D21" s="4">
-        <v>-79.770960000000002</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
+        <v>36.036809400000003</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-79.763590800000003</v>
+      </c>
+      <c r="G21" s="2">
         <v>37081012805</v>
       </c>
     </row>

--- a/data/RTG_Locations.xlsx
+++ b/data/RTG_Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54551\Desktop\isochrone_testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB27717A-DE6A-4197-92A6-8E87AF360000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24060428-FF1E-4D91-8CFE-A8EF9E9C9AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Address</t>
   </si>
@@ -576,7 +576,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +677,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="4">
-        <v>36.073140000000002</v>
+        <v>36.045703400000001</v>
       </c>
       <c r="F5" s="4">
-        <v>-79.834620000000001</v>
+        <v>-79.928663</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -729,9 +729,6 @@
       </c>
       <c r="B8" t="s">
         <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>

--- a/data/RTG_Locations.xlsx
+++ b/data/RTG_Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54551\Desktop\isochrone_testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24060428-FF1E-4D91-8CFE-A8EF9E9C9AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2451D4A7-CCCD-48CB-9ED6-9FAB38F54683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Address</t>
   </si>
@@ -65,9 +65,6 @@
     <t>2100 Pyramids Village Blvd, Greensboro</t>
   </si>
   <si>
-    <t>E Greensboro</t>
-  </si>
-  <si>
     <t>4327 –4399 Burlington Rd &amp; 203 –211 WillowlakeRd, Greensboro</t>
   </si>
   <si>
@@ -155,13 +152,28 @@
     <t>N Church/ E Cone</t>
   </si>
   <si>
-    <t>Life Community Church</t>
-  </si>
-  <si>
     <t>Near Elmsley SQ</t>
   </si>
   <si>
     <t xml:space="preserve">Across from Auto Repair </t>
+  </si>
+  <si>
+    <t>2703 W Gate City Blvd, Greensboro, NC 27403</t>
+  </si>
+  <si>
+    <t>Former Alexander Devereaux</t>
+  </si>
+  <si>
+    <t>SE Greensboro, Near Elmsley</t>
+  </si>
+  <si>
+    <t>Near new housing complex</t>
+  </si>
+  <si>
+    <t>Close to sheets by 840</t>
+  </si>
+  <si>
+    <t>E Greensboro,Close to sheets by 840</t>
   </si>
 </sst>
 </file>
@@ -573,16 +585,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318463B-95AD-48F3-A21D-B28D427A475F}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -591,25 +603,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,9 +682,6 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
@@ -691,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -711,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -745,10 +754,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
       </c>
       <c r="E9" s="4">
         <v>36.096483499999998</v>
@@ -762,10 +771,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="6">
         <v>36.096483499999998</v>
@@ -779,10 +791,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
       </c>
       <c r="E11" s="4">
         <v>36.063453961651298</v>
@@ -796,10 +808,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4">
         <v>36.096483499999998</v>
@@ -813,10 +825,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4">
         <v>36.0534259914998</v>
@@ -830,10 +842,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4">
         <v>36.096483499999998</v>
@@ -847,13 +862,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
       </c>
       <c r="E15" s="4">
         <v>36.015284725514</v>
@@ -867,10 +882,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4">
         <v>36.006445762246898</v>
@@ -884,10 +899,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="4">
         <v>36.004964111264002</v>
@@ -901,13 +916,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="4">
         <v>36.002955120445797</v>
@@ -921,13 +936,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="4">
         <v>36.1141042</v>
@@ -944,13 +959,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="4">
         <v>36.068318599999998</v>
@@ -967,13 +982,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="4">
         <v>36.036809400000003</v>
@@ -983,6 +998,26 @@
       </c>
       <c r="G21" s="2">
         <v>37081012805</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4">
+        <v>36.051965600000003</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-79.8345767</v>
       </c>
     </row>
   </sheetData>

--- a/data/RTG_Locations.xlsx
+++ b/data/RTG_Locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54551\Desktop\isochrone_testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2451D4A7-CCCD-48CB-9ED6-9FAB38F54683}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF292474-3750-49B0-86AC-24F798383907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,14 +756,17 @@
       <c r="B9" t="s">
         <v>46</v>
       </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>36.096483499999998</v>
+        <v>36.091069099999999</v>
       </c>
       <c r="F9" s="4">
-        <v>-79.827107900000001</v>
+        <v>-79.706162500000005</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -773,9 +776,6 @@
       <c r="B10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -851,10 +851,10 @@
         <v>16</v>
       </c>
       <c r="E14" s="4">
-        <v>36.096483499999998</v>
+        <v>36.059929500000003</v>
       </c>
       <c r="F14" s="4">
-        <v>-79.827107900000001</v>
+        <v>-79.715102099999996</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/data/RTG_Locations.xlsx
+++ b/data/RTG_Locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54551\Desktop\isochrone_testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF292474-3750-49B0-86AC-24F798383907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DD2AF1-6595-469F-A0AF-E40C082ADE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Address</t>
   </si>
@@ -174,6 +174,51 @@
   </si>
   <si>
     <t>E Greensboro,Close to sheets by 840</t>
+  </si>
+  <si>
+    <t>Former Alexander Devereaux/ Gate City and Floriday Shopping Area</t>
+  </si>
+  <si>
+    <t>Alamance Church &amp; MLK retail (by Neighborhood Walmart)</t>
+  </si>
+  <si>
+    <t>2525c Phillips Ave, Greensboro, NC 27405</t>
+  </si>
+  <si>
+    <t>Renaissance old co-op grocery store space</t>
+  </si>
+  <si>
+    <t>2907 E Gate City Blvd, Greensboro, NC 27401</t>
+  </si>
+  <si>
+    <t>Area around NCAT/UNCG Joint School</t>
+  </si>
+  <si>
+    <t>101 S Dudley St, Greensboro, NC 27401</t>
+  </si>
+  <si>
+    <t>Lot across from House of Prayer</t>
+  </si>
+  <si>
+    <t>3700 N Church St, Greensboro, NC 27405</t>
+  </si>
+  <si>
+    <t>Cone Blvd / Church St // Old Harris Teeter</t>
+  </si>
+  <si>
+    <t>House of Prayer</t>
+  </si>
+  <si>
+    <t>Joint School</t>
+  </si>
+  <si>
+    <t>Old Co-op grocery</t>
+  </si>
+  <si>
+    <t>By Neighborhood Walmart</t>
+  </si>
+  <si>
+    <t>Old Harris Teeter</t>
   </si>
 </sst>
 </file>
@@ -183,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,16 +270,28 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -257,11 +314,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,6 +341,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318463B-95AD-48F3-A21D-B28D427A475F}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1079,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
@@ -1018,6 +1092,106 @@
       </c>
       <c r="F22" s="4">
         <v>-79.8345767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>36.0401296</v>
+      </c>
+      <c r="F23">
+        <v>-79.7729286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24">
+        <v>36.096275800000001</v>
+      </c>
+      <c r="F24">
+        <v>-79.745900399999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25">
+        <v>36.056616599999998</v>
+      </c>
+      <c r="F25">
+        <v>-79.747521399999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>36.071111500000001</v>
+      </c>
+      <c r="F26">
+        <v>-79.779717300000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27">
+        <v>36.131413899999998</v>
+      </c>
+      <c r="F27">
+        <v>-79.788474800000003</v>
       </c>
     </row>
   </sheetData>

--- a/data/RTG_Locations.xlsx
+++ b/data/RTG_Locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54551\Desktop\isochrone_testing\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DD2AF1-6595-469F-A0AF-E40C082ADE54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEEC421-8DA1-42C6-AE74-11FD1B76D19B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
+    <workbookView xWindow="29745" yWindow="1725" windowWidth="21600" windowHeight="11385" xr2:uid="{EE2F5E79-50BB-468F-98F2-7382D34D6FA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Address</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Mt Zion</t>
   </si>
   <si>
-    <t>Pyramids Village</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>SE Greensboro, Near Elmsley</t>
   </si>
   <si>
-    <t>Near new housing complex</t>
-  </si>
-  <si>
     <t>Close to sheets by 840</t>
   </si>
   <si>
@@ -219,6 +213,60 @@
   </si>
   <si>
     <t>Old Harris Teeter</t>
+  </si>
+  <si>
+    <t>SE GSO Option 1</t>
+  </si>
+  <si>
+    <t>2110 Martin Luther King Jr Dr, Greensboro, NC 27406</t>
+  </si>
+  <si>
+    <t>SE GSO Option 2</t>
+  </si>
+  <si>
+    <t>1217 Rotherwood Rd, Greensboro, NC  27406</t>
+  </si>
+  <si>
+    <t>NCAT Option 3</t>
+  </si>
+  <si>
+    <t>1026 Tucker St, Greensboro, NC 27405</t>
+  </si>
+  <si>
+    <t>NCAT Option 4</t>
+  </si>
+  <si>
+    <t>900 E Market St, Greensboro, NC 27401</t>
+  </si>
+  <si>
+    <t>NE GSO Option 5</t>
+  </si>
+  <si>
+    <t>NE GSO Option 8</t>
+  </si>
+  <si>
+    <t>2571 Sixteenth St, Greensboro, NC 27405</t>
+  </si>
+  <si>
+    <t>RTG Option 9</t>
+  </si>
+  <si>
+    <t>Pyramids Village/ RTG Option 6-7</t>
+  </si>
+  <si>
+    <t>Fringe NE GSO Option 10</t>
+  </si>
+  <si>
+    <t>4327 Burlington Rd, Greensboro, NC 27405</t>
+  </si>
+  <si>
+    <t>S GSO Option 11</t>
+  </si>
+  <si>
+    <t>421 W Meadowview Rd, Greensboro, NC 27406</t>
+  </si>
+  <si>
+    <t>2714 N Church St, Greensboro, NC 27405</t>
   </si>
 </sst>
 </file>
@@ -291,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -327,11 +375,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +404,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,16 +724,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D318463B-95AD-48F3-A21D-B28D427A475F}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
@@ -677,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>31</v>
@@ -774,7 +839,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -794,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -828,10 +893,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -848,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -919,7 +984,7 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -939,7 +1004,7 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -956,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -973,7 +1038,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -990,10 +1055,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1079,13 +1144,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="4">
         <v>36.051965600000003</v>
@@ -1099,10 +1164,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
@@ -1119,13 +1184,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24">
         <v>36.096275800000001</v>
@@ -1139,13 +1204,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E25">
         <v>36.056616599999998</v>
@@ -1159,13 +1224,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E26">
         <v>36.071111500000001</v>
@@ -1179,19 +1244,179 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>36.131413899999998</v>
       </c>
       <c r="F27">
         <v>-79.788474800000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <v>36.045845800000002</v>
+      </c>
+      <c r="F28">
+        <v>-79.777067599999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29">
+        <v>36.043691199999998</v>
+      </c>
+      <c r="F29">
+        <v>-79.770415999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30">
+        <v>36.086779300000003</v>
+      </c>
+      <c r="F30">
+        <v>-79.767143000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31">
+        <v>36.070852299999999</v>
+      </c>
+      <c r="F31">
+        <v>-79.782071000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32">
+        <v>36.113113200000001</v>
+      </c>
+      <c r="F32">
+        <v>-79.783489599999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33">
+        <v>36.114074700000003</v>
+      </c>
+      <c r="F33">
+        <v>-79.752114399999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34">
+        <v>36.087581299999997</v>
+      </c>
+      <c r="F34">
+        <v>-79.707942000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35">
+        <v>36.038208500000003</v>
+      </c>
+      <c r="F35">
+        <v>-79.8032374</v>
       </c>
     </row>
   </sheetData>
